--- a/Road-Safety-Open-Dataset-Data-Guide.xlsx
+++ b/Road-Safety-Open-Dataset-Data-Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_m_j_f_scheve_student_tue_nl/Documents/JADS/Jaar 2/Semester 2/Visualization/Data_Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{D4FA8AE0-EC57-49F5-8B24-643C38E25D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B90ED68-0596-433A-8029-F208BC4985B4}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{D4FA8AE0-EC57-49F5-8B24-643C38E25D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0414C31F-CF74-4602-936C-310D7CBB3D65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{82FE1C29-958A-4055-BB6E-26553B9841EE}"/>
   </bookViews>
@@ -4064,7 +4064,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4115,9 +4115,25 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED7D31"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4169,6 +4185,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4183,17 +4207,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF588D6C-05BE-4F5E-8714-DDDF08DC6A43}" name="Table2" displayName="Table2" ref="A1:E1580" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF588D6C-05BE-4F5E-8714-DDDF08DC6A43}" name="Table2" displayName="Table2" ref="A1:E1580" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:E1580" xr:uid="{DF588D6C-05BE-4F5E-8714-DDDF08DC6A43}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1580">
-    <sortCondition sortBy="cellColor" ref="A1:A1580" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="B1:B1580" dxfId="1"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ABC29A16-2F40-4C0C-B527-DABBE5F17217}" name="table" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{FA3886C2-39F0-496F-9024-D1CB24EA444E}" name="field name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A3C4254D-0B67-4EF9-A795-911944E55E92}" name="code/format" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{8D4235FA-975B-416C-8EE9-5290B0CD24DF}" name="label" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{EB296E85-016C-45EB-A4FC-FA879298B749}" name="note" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{ABC29A16-2F40-4C0C-B527-DABBE5F17217}" name="table" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FA3886C2-39F0-496F-9024-D1CB24EA444E}" name="field name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A3C4254D-0B67-4EF9-A795-911944E55E92}" name="code/format" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8D4235FA-975B-416C-8EE9-5290B0CD24DF}" name="label" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{EB296E85-016C-45EB-A4FC-FA879298B749}" name="note" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4498,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359AD2DA-1B9C-4852-8124-C2A3CC8455D6}">
   <dimension ref="A1:E1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A1548" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1564" sqref="B1564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -4591,7 +4615,7 @@
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1306</v>
@@ -4604,7 +4628,7 @@
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>104</v>
@@ -4620,384 +4644,372 @@
         <v>128</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1306</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>1306</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="A11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1068</v>
+        <v>1101</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1069</v>
+        <v>1003</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>1294</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1294</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>1294</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>1294</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>1076</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>1194</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C26" s="7">
-        <v>18</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C27" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1080</v>
+        <v>1198</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C28" s="7">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C29" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1082</v>
+        <v>1223</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1293</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C30" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1083</v>
+        <v>1224</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1295</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C31" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1295</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C32" s="7">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1085</v>
+        <v>1003</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1295</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -5008,14 +5020,12 @@
         <v>105</v>
       </c>
       <c r="C33" s="7">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>1295</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -5025,14 +5035,12 @@
         <v>105</v>
       </c>
       <c r="C34" s="7">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>1295</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -5042,13 +5050,13 @@
         <v>105</v>
       </c>
       <c r="C35" s="7">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1279</v>
+        <v>1070</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -5059,13 +5067,13 @@
         <v>105</v>
       </c>
       <c r="C36" s="7">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1280</v>
+        <v>1071</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -5076,13 +5084,13 @@
         <v>105</v>
       </c>
       <c r="C37" s="7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1281</v>
+        <v>1072</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -5093,13 +5101,13 @@
         <v>105</v>
       </c>
       <c r="C38" s="7">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1282</v>
+        <v>1073</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,13 +5118,13 @@
         <v>105</v>
       </c>
       <c r="C39" s="7">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1283</v>
+        <v>1074</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -5127,13 +5135,13 @@
         <v>105</v>
       </c>
       <c r="C40" s="7">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1284</v>
+        <v>1075</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,14 +5152,12 @@
         <v>105</v>
       </c>
       <c r="C41" s="7">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>1297</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -5161,13 +5167,13 @@
         <v>105</v>
       </c>
       <c r="C42" s="7">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1286</v>
+        <v>1077</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -5178,13 +5184,13 @@
         <v>105</v>
       </c>
       <c r="C43" s="7">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1287</v>
+        <v>1078</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5195,25 +5201,27 @@
         <v>105</v>
       </c>
       <c r="C44" s="7">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>1079</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="E45" s="7"/>
     </row>
@@ -5222,253 +5230,285 @@
         <v>103</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E46" s="7"/>
+        <v>1081</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>1082</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>1083</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>1084</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="7">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>1085</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="7">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>1086</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="7">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>1087</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>1279</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C54" s="7">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>1280</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C55" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>1281</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C56" s="7">
-        <v>-1</v>
+        <v>105</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E56" s="7"/>
+        <v>1282</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E57" s="7"/>
+        <v>1283</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E58" s="7"/>
+        <v>1284</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C59" s="7">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E59" s="7"/>
+        <v>1285</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C60" s="7">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E60" s="7"/>
+        <v>1286</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C61" s="7">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E61" s="7"/>
+        <v>1287</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C62" s="7">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1184</v>
+        <v>1003</v>
       </c>
       <c r="E62" s="7"/>
     </row>
@@ -5477,30 +5517,28 @@
         <v>103</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C63" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>1314</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C64" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1003</v>
+        <v>1089</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -5509,10 +5547,14 @@
         <v>103</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1090</v>
+      </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5520,13 +5562,13 @@
         <v>103</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C66" s="7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1003</v>
+        <v>1091</v>
       </c>
       <c r="E66" s="7"/>
     </row>
@@ -5535,13 +5577,13 @@
         <v>103</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C67" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1199</v>
+        <v>1092</v>
       </c>
       <c r="E67" s="7"/>
     </row>
@@ -5550,13 +5592,13 @@
         <v>103</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C68" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1200</v>
+        <v>1093</v>
       </c>
       <c r="E68" s="7"/>
     </row>
@@ -5565,13 +5607,13 @@
         <v>103</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C69" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="E69" s="7"/>
     </row>
@@ -5580,13 +5622,13 @@
         <v>103</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C70" s="7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1202</v>
+        <v>1003</v>
       </c>
       <c r="E70" s="7"/>
     </row>
@@ -5595,13 +5637,13 @@
         <v>103</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C71" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1203</v>
+        <v>1066</v>
       </c>
       <c r="E71" s="7"/>
     </row>
@@ -5610,13 +5652,13 @@
         <v>103</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C72" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1204</v>
+        <v>1065</v>
       </c>
       <c r="E72" s="7"/>
     </row>
@@ -5625,13 +5667,13 @@
         <v>103</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C73" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1205</v>
+        <v>1001</v>
       </c>
       <c r="E73" s="7"/>
     </row>
@@ -5640,13 +5682,13 @@
         <v>103</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C74" s="7">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1206</v>
+        <v>1003</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -5655,13 +5697,13 @@
         <v>103</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C75" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1207</v>
+        <v>1180</v>
       </c>
       <c r="E75" s="7"/>
     </row>
@@ -5670,13 +5712,13 @@
         <v>103</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C76" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1208</v>
+        <v>1181</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -5685,13 +5727,13 @@
         <v>103</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C77" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1209</v>
+        <v>1182</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -5700,13 +5742,13 @@
         <v>103</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C78" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1210</v>
+        <v>1183</v>
       </c>
       <c r="E78" s="7"/>
     </row>
@@ -5715,13 +5757,13 @@
         <v>103</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="8">
-        <v>-1</v>
+        <v>118</v>
+      </c>
+      <c r="C79" s="7">
+        <v>5</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1211</v>
+        <v>1038</v>
       </c>
       <c r="E79" s="7"/>
     </row>
@@ -5730,63 +5772,65 @@
         <v>103</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="C80" s="7">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>1184</v>
+      </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C81" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E81" s="7"/>
+        <v>1185</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C82" s="7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1187</v>
+        <v>1003</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="7">
-        <v>9</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>1101</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C84" s="7">
         <v>-1</v>
@@ -5798,250 +5842,230 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>1188</v>
+      <c r="D85" s="7" t="s">
+        <v>1199</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C86" s="7">
         <v>2</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>1189</v>
+      <c r="D86" s="7" t="s">
+        <v>1200</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C87" s="7">
         <v>3</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>1190</v>
+      <c r="D87" s="7" t="s">
+        <v>1201</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C88" s="7">
         <v>4</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>1191</v>
+      <c r="D88" s="7" t="s">
+        <v>1202</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C89" s="7">
         <v>5</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>1192</v>
+      <c r="D89" s="7" t="s">
+        <v>1203</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7">
         <v>6</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>1193</v>
+      <c r="D90" s="7" t="s">
+        <v>1204</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C91" s="7">
         <v>7</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>1194</v>
+      <c r="D91" s="7" t="s">
+        <v>1205</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7">
         <v>8</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>1195</v>
+      <c r="D92" s="7" t="s">
+        <v>1206</v>
       </c>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7">
         <v>9</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>1196</v>
+      <c r="D93" s="7" t="s">
+        <v>1207</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7">
         <v>10</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>1197</v>
+      <c r="D94" s="7" t="s">
+        <v>1208</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C95" s="7">
         <v>11</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C96" s="7">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1003</v>
+        <v>1210</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="7">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C97" s="8">
+        <v>-1</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>1225</v>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="7">
-        <v>2</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>1225</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="7">
-        <v>3</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>1225</v>
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>1225</v>
+      <c r="A100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -23329,7 +23353,7 @@
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1332" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>65</v>
@@ -23340,7 +23364,7 @@
     </row>
     <row r="1333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1333" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>1299</v>
@@ -23348,1224 +23372,1302 @@
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1334" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C1334" s="1">
         <v>1</v>
       </c>
       <c r="D1334" s="1" t="s">
-        <v>1105</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1335" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C1335" s="1">
         <v>2</v>
       </c>
       <c r="D1335" s="1" t="s">
-        <v>1103</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1336" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C1336" s="1">
         <v>3</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>1106</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1337" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1337" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1337" s="1" t="s">
-        <v>1107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1338" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C1338" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D1338" s="1" t="s">
-        <v>1108</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1339" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1339" s="1">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="C1339" s="3">
+        <v>0</v>
       </c>
       <c r="D1339" s="1" t="s">
-        <v>1109</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1340" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1340" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1340" s="1" t="s">
-        <v>1110</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1341" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1341" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1341" s="1" t="s">
-        <v>1111</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1342" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1342" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1342" s="1" t="s">
-        <v>1112</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1343" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1343" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1343" s="1" t="s">
-        <v>1113</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1344" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1344" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1344" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1345" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1345" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1345" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1346" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1346" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1346" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1347" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1347" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1347" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1348" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1348" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D1348" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1349" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1349" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1350" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C1350" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="D1350" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1351" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1351" s="1">
-        <v>18</v>
+        <v>136</v>
+      </c>
+      <c r="C1351" s="3">
+        <v>0</v>
       </c>
       <c r="D1351" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1352" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C1352" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D1352" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1353" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1354" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1355" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1355" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1356" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1356" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1357" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1357" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1357" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1358" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1358" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1359" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1360" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1361" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1361" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1362" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1362" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1363" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1363" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1364" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1364" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1365" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1365" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1365" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1353" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1353" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1353" s="1">
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1366" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1366" s="1">
         <v>-1</v>
       </c>
-      <c r="D1353" s="1" t="s">
+      <c r="D1366" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1354" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1354" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1354" s="3">
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1367" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1367" s="1">
         <v>0</v>
       </c>
-      <c r="D1354" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E1354" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1355" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1355" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1355" s="1">
+      <c r="D1367" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1368" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1368" s="1">
         <v>1</v>
       </c>
-      <c r="D1355" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1356" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1356" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1356" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1356" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1357" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1357" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1357" s="1">
+      <c r="D1368" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1369" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1369" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1369" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1370" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1370" s="1">
         <v>3</v>
       </c>
-      <c r="D1357" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1358" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1358" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1358" s="1">
+      <c r="D1370" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1371" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1371" s="1">
         <v>4</v>
       </c>
-      <c r="D1358" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1359" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1359" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1359" s="1">
-        <v>5</v>
-      </c>
-      <c r="D1359" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1360" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1360" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1360" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1360" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1361" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1361" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1361" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1361" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1362" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1362" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1362" s="1">
-        <v>8</v>
-      </c>
-      <c r="D1362" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1363" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1363" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1363" s="1">
+      <c r="D1371" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1372" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1372" s="1">
         <v>9</v>
       </c>
-      <c r="D1363" s="1" t="s">
+      <c r="D1372" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="E1363" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1364" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1364" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1364" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1364" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E1364" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1365" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1365" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1365" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1365" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1366" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1366" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1366" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1366" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1367" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1367" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1367" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1367" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1368" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1368" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1368" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1368" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1369" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1369" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1369" s="1">
-        <v>5</v>
-      </c>
-      <c r="D1369" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1370" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1370" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1370" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1370" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1371" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1371" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1371" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1371" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1372" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1372" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1372" s="1">
-        <v>8</v>
-      </c>
-      <c r="D1372" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1373" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C1373" s="1">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D1373" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E1373" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1374" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C1374" s="1">
         <v>0</v>
       </c>
       <c r="D1374" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1375" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C1375" s="1">
         <v>1</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1376" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C1376" s="1">
         <v>2</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1377" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C1377" s="1">
         <v>3</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1315</v>
+      </c>
+      <c r="E1377" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1378" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C1378" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D1378" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1379" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1379" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1379" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1380" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1380" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1380" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1381" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1381" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1381" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1382" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1382" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1382" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E1382" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1383" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1383" s="1">
         <v>4</v>
       </c>
-      <c r="D1378" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1379" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1379" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1379" s="1">
+      <c r="D1383" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E1383" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1384" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1384" s="1">
         <v>5</v>
       </c>
-      <c r="D1379" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1380" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1380" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1380" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1380" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1381" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1381" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1381" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1381" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1382" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1382" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1382" s="1">
+      <c r="D1384" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1384" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1385" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1385" s="1">
         <v>8</v>
       </c>
-      <c r="D1382" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1383" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1383" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1383" s="1">
+      <c r="D1385" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E1385" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1386" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1386" s="1">
         <v>9</v>
       </c>
-      <c r="D1383" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1384" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1384" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1384" s="1">
+      <c r="D1386" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E1386" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1387" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1387" s="1">
         <v>10</v>
       </c>
-      <c r="D1384" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1385" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1385" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1385" s="1">
-        <v>99</v>
-      </c>
-      <c r="D1385" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1386" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1386" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1386" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D1386" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1387" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1387" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1387" s="1">
-        <v>0</v>
-      </c>
       <c r="D1387" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1266</v>
+      </c>
+      <c r="E1387" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1388" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1388" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1388" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1389" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1389" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1389" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1389" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1268</v>
+      </c>
+      <c r="E1389" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1390" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1390" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1269</v>
+      </c>
+      <c r="E1390" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1391" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1391" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1391" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1391" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1270</v>
+      </c>
+      <c r="E1391" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1392" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1392" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>1138</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1393" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1393" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>1139</v>
+        <v>1272</v>
+      </c>
+      <c r="E1393" s="1" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1394" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1394" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>1140</v>
+        <v>1273</v>
+      </c>
+      <c r="E1394" s="1" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1395" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1395" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D1395" s="1" t="s">
-        <v>1141</v>
+        <v>1274</v>
+      </c>
+      <c r="E1395" s="1" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1396" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1396" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>1101</v>
+        <v>1275</v>
+      </c>
+      <c r="E1396" s="1" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1397" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C1397" s="1">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="D1397" s="1" t="s">
-        <v>1003</v>
+        <v>1276</v>
+      </c>
+      <c r="E1397" s="1" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="1398" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1398" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1398" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E1398" s="1"/>
+        <v>1277</v>
+      </c>
+      <c r="E1398" s="1" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="1399" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1399" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1399" s="1">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E1399" s="1"/>
+        <v>1278</v>
+      </c>
+      <c r="E1399" s="1" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="1400" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1400" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1400" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1400" s="1">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E1400" s="1"/>
+        <v>1279</v>
+      </c>
+      <c r="E1400" s="1" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="1401" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1401" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1401" s="1">
         <v>103</v>
       </c>
-      <c r="B1401" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1401" s="1">
-        <v>3</v>
-      </c>
       <c r="D1401" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E1401" s="1"/>
+        <v>1280</v>
+      </c>
+      <c r="E1401" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="1402" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1402" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1402" s="1">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D1402" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E1402" s="1"/>
+        <v>1281</v>
+      </c>
+      <c r="E1402" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="1403" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1403" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1403" s="1">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D1403" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E1403" s="1"/>
+        <v>1282</v>
+      </c>
+      <c r="E1403" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="1404" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1404" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1404" s="1">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E1404" s="1"/>
+        <v>1283</v>
+      </c>
+      <c r="E1404" s="1" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="1405" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1405" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C1405" s="1">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E1405" s="1"/>
+        <v>1284</v>
+      </c>
+      <c r="E1405" s="1" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="1406" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1406" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C1406" s="1">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E1406" s="1"/>
+        <v>1285</v>
+      </c>
+      <c r="E1406" s="1" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="1407" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1407" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C1407" s="1">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E1407" s="1"/>
+        <v>1286</v>
+      </c>
+      <c r="E1407" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="1408" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1408" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1408" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1408" s="1">
         <v>113</v>
       </c>
-      <c r="C1408" s="1">
-        <v>2</v>
-      </c>
       <c r="D1408" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E1408" s="1"/>
+        <v>1287</v>
+      </c>
+      <c r="E1408" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="1409" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1409" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1409" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1409" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E1409" s="1"/>
+        <v>1212</v>
+      </c>
+      <c r="E1409" s="1" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1410" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1410" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>1149</v>
+        <v>1213</v>
+      </c>
+      <c r="E1410" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1411" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1411" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>1150</v>
+        <v>1214</v>
+      </c>
+      <c r="E1411" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1412" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1412" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>1151</v>
+        <v>1215</v>
+      </c>
+      <c r="E1412" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1413" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1413" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>1152</v>
+        <v>1216</v>
+      </c>
+      <c r="E1413" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1414" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1414" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>1153</v>
+        <v>1217</v>
+      </c>
+      <c r="E1414" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1415" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1415" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>1154</v>
+        <v>1218</v>
+      </c>
+      <c r="E1415" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1416" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1416" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>1155</v>
+        <v>1219</v>
+      </c>
+      <c r="E1416" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1417" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1417" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>1156</v>
+        <v>1220</v>
+      </c>
+      <c r="E1417" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1418" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1418" s="1">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>1101</v>
+        <v>1221</v>
+      </c>
+      <c r="E1418" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1419" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C1419" s="1">
         <v>-1</v>
@@ -24573,89 +24675,77 @@
       <c r="D1419" s="1" t="s">
         <v>1003</v>
       </c>
+      <c r="E1419" s="1" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1420" s="1" t="s">
-        <v>103</v>
+        <v>1309</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1420" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1420" s="1" t="s">
-        <v>1157</v>
+        <v>65</v>
+      </c>
+      <c r="E1420" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1421" s="1" t="s">
-        <v>103</v>
+        <v>1309</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1421" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1421" s="1" t="s">
-        <v>1158</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1422" s="1" t="s">
-        <v>103</v>
+        <v>1309</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1422" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1422" s="1" t="s">
-        <v>1159</v>
+        <v>1306</v>
+      </c>
+      <c r="E1422" s="1" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1423" s="1" t="s">
-        <v>103</v>
+        <v>1309</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1423" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1423" s="1" t="s">
-        <v>1160</v>
+        <v>104</v>
+      </c>
+      <c r="E1423" s="1" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1424" s="1" t="s">
-        <v>103</v>
+        <v>1309</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C1424" s="1">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>1161</v>
+        <v>1085</v>
+      </c>
+      <c r="E1424" s="1" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1425" s="1" t="s">
-        <v>103</v>
+        <v>1309</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1425" s="1">
-        <v>5</v>
+        <v>1308</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>1162</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.2">
@@ -24663,13 +24753,10 @@
         <v>103</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1426" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1426" s="1" t="s">
-        <v>1163</v>
+        <v>65</v>
+      </c>
+      <c r="E1426" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="1427" spans="1:5" x14ac:dyDescent="0.2">
@@ -24677,13 +24764,7 @@
         <v>103</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1427" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1427" s="1" t="s">
-        <v>1164</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1428" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -24691,13 +24772,13 @@
         <v>103</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1428" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1428" s="1" t="s">
-        <v>1165</v>
+        <v>1105</v>
       </c>
       <c r="E1428" s="1"/>
     </row>
@@ -24706,13 +24787,13 @@
         <v>103</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1429" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1429" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E1429" s="1"/>
     </row>
@@ -24721,13 +24802,13 @@
         <v>103</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1430" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>1003</v>
+        <v>1106</v>
       </c>
       <c r="E1430" s="1"/>
     </row>
@@ -24736,13 +24817,13 @@
         <v>103</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1431" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>1046</v>
+        <v>1107</v>
       </c>
       <c r="E1431" s="1"/>
     </row>
@@ -24751,13 +24832,13 @@
         <v>103</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1432" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>1166</v>
+        <v>1108</v>
       </c>
       <c r="E1432" s="1"/>
     </row>
@@ -24766,13 +24847,13 @@
         <v>103</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1433" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1433" s="1" t="s">
-        <v>1167</v>
+        <v>1109</v>
       </c>
       <c r="E1433" s="1"/>
     </row>
@@ -24781,13 +24862,13 @@
         <v>103</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1434" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1434" s="1" t="s">
-        <v>1168</v>
+        <v>1110</v>
       </c>
       <c r="E1434" s="1"/>
     </row>
@@ -24796,13 +24877,13 @@
         <v>103</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1435" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1435" s="1" t="s">
-        <v>1169</v>
+        <v>1111</v>
       </c>
       <c r="E1435" s="1"/>
     </row>
@@ -24811,13 +24892,13 @@
         <v>103</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1436" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1436" s="1" t="s">
-        <v>1170</v>
+        <v>1112</v>
       </c>
       <c r="E1436" s="1"/>
     </row>
@@ -24826,13 +24907,13 @@
         <v>103</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1437" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1437" s="1" t="s">
-        <v>1171</v>
+        <v>1113</v>
       </c>
       <c r="E1437" s="1"/>
     </row>
@@ -24841,13 +24922,13 @@
         <v>103</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1438" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1438" s="1" t="s">
-        <v>1172</v>
+        <v>1114</v>
       </c>
       <c r="E1438" s="1"/>
     </row>
@@ -24856,13 +24937,13 @@
         <v>103</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1439" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1439" s="1" t="s">
-        <v>1173</v>
+        <v>1115</v>
       </c>
       <c r="E1439" s="1"/>
     </row>
@@ -24871,13 +24952,13 @@
         <v>103</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1440" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1440" s="1" t="s">
-        <v>1174</v>
+        <v>1116</v>
       </c>
       <c r="E1440" s="1"/>
     </row>
@@ -24886,13 +24967,13 @@
         <v>103</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1441" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1441" s="1" t="s">
-        <v>1175</v>
+        <v>1117</v>
       </c>
       <c r="E1441" s="1"/>
     </row>
@@ -24901,13 +24982,13 @@
         <v>103</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1442" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1442" s="1" t="s">
-        <v>1176</v>
+        <v>1118</v>
       </c>
       <c r="E1442" s="1"/>
     </row>
@@ -24916,13 +24997,13 @@
         <v>103</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1443" s="1">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D1443" s="1" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="E1443" s="1"/>
     </row>
@@ -24931,13 +25012,13 @@
         <v>103</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1444" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="D1444" s="1" t="s">
-        <v>1003</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1445" spans="1:5" x14ac:dyDescent="0.2">
@@ -24945,13 +25026,13 @@
         <v>103</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C1445" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D1445" s="1" t="s">
-        <v>1177</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1446" spans="1:5" x14ac:dyDescent="0.2">
@@ -24959,13 +25040,13 @@
         <v>103</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C1446" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D1446" s="1" t="s">
-        <v>1178</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1447" spans="1:5" x14ac:dyDescent="0.2">
@@ -24973,13 +25054,13 @@
         <v>103</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C1447" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D1447" s="1" t="s">
-        <v>1179</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1448" spans="1:5" x14ac:dyDescent="0.2">
@@ -24987,13 +25068,16 @@
         <v>103</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1448" s="1">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="C1448" s="3">
+        <v>0</v>
       </c>
       <c r="D1448" s="1" t="s">
-        <v>1164</v>
+        <v>1103</v>
+      </c>
+      <c r="E1448" s="1" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="1449" spans="1:5" x14ac:dyDescent="0.2">
@@ -25001,13 +25085,13 @@
         <v>103</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C1449" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1449" s="1" t="s">
-        <v>1158</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1450" spans="1:5" x14ac:dyDescent="0.2">
@@ -25015,13 +25099,13 @@
         <v>103</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C1450" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1450" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1451" spans="1:5" x14ac:dyDescent="0.2">
@@ -25029,13 +25113,13 @@
         <v>103</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C1451" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D1451" s="1" t="s">
-        <v>1003</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.2">
@@ -25043,13 +25127,13 @@
         <v>103</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C1452" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1452" s="1" t="s">
-        <v>1186</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1453" spans="1:5" x14ac:dyDescent="0.2">
@@ -25057,13 +25141,13 @@
         <v>103</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C1453" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1453" s="1" t="s">
-        <v>1187</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1454" spans="1:5" x14ac:dyDescent="0.2">
@@ -25071,13 +25155,13 @@
         <v>103</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C1454" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1454" s="1" t="s">
-        <v>1184</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1455" spans="1:5" x14ac:dyDescent="0.2">
@@ -25085,13 +25169,13 @@
         <v>103</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C1455" s="1">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D1455" s="1" t="s">
-        <v>1003</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1456" spans="1:5" x14ac:dyDescent="0.2">
@@ -25099,7 +25183,13 @@
         <v>103</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="C1456" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1456" s="1" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="1457" spans="1:5" x14ac:dyDescent="0.2">
@@ -25107,13 +25197,16 @@
         <v>103</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C1457" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D1457" s="1" t="s">
-        <v>1003</v>
+        <v>1101</v>
+      </c>
+      <c r="E1457" s="1" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="1458" spans="1:5" x14ac:dyDescent="0.2">
@@ -25121,13 +25214,16 @@
         <v>103</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1458" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1458" s="4" t="s">
-        <v>1188</v>
+        <v>109</v>
+      </c>
+      <c r="C1458" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1458" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1458" s="1" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="1459" spans="1:5" x14ac:dyDescent="0.2">
@@ -25135,13 +25231,13 @@
         <v>103</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1459" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1459" s="5" t="s">
-        <v>1189</v>
+        <v>1</v>
+      </c>
+      <c r="D1459" s="1" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="1460" spans="1:5" x14ac:dyDescent="0.2">
@@ -25149,13 +25245,13 @@
         <v>103</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1460" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1460" s="4" t="s">
-        <v>1190</v>
+        <v>2</v>
+      </c>
+      <c r="D1460" s="1" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="1461" spans="1:5" x14ac:dyDescent="0.2">
@@ -25163,13 +25259,13 @@
         <v>103</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1461" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1461" s="4" t="s">
-        <v>1191</v>
+        <v>3</v>
+      </c>
+      <c r="D1461" s="1" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="1462" spans="1:5" x14ac:dyDescent="0.2">
@@ -25177,13 +25273,13 @@
         <v>103</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1462" s="1">
-        <v>5</v>
-      </c>
-      <c r="D1462" s="4" t="s">
-        <v>1192</v>
+        <v>4</v>
+      </c>
+      <c r="D1462" s="1" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1463" spans="1:5" x14ac:dyDescent="0.2">
@@ -25191,13 +25287,13 @@
         <v>103</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1463" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1463" s="4" t="s">
-        <v>1193</v>
+        <v>5</v>
+      </c>
+      <c r="D1463" s="1" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1464" spans="1:5" x14ac:dyDescent="0.2">
@@ -25205,13 +25301,13 @@
         <v>103</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1464" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1464" s="4" t="s">
-        <v>1194</v>
+        <v>6</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="1465" spans="1:5" x14ac:dyDescent="0.2">
@@ -25219,13 +25315,13 @@
         <v>103</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1465" s="1">
-        <v>8</v>
-      </c>
-      <c r="D1465" s="4" t="s">
-        <v>1195</v>
+        <v>7</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="1466" spans="1:5" x14ac:dyDescent="0.2">
@@ -25233,13 +25329,13 @@
         <v>103</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1466" s="1">
-        <v>9</v>
-      </c>
-      <c r="D1466" s="4" t="s">
-        <v>1196</v>
+        <v>8</v>
+      </c>
+      <c r="D1466" s="1" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="1467" spans="1:5" x14ac:dyDescent="0.2">
@@ -25247,13 +25343,16 @@
         <v>103</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1467" s="1">
-        <v>10</v>
-      </c>
-      <c r="D1467" s="4" t="s">
-        <v>1197</v>
+        <v>9</v>
+      </c>
+      <c r="D1467" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1467" s="1" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="1468" spans="1:5" x14ac:dyDescent="0.2">
@@ -25261,13 +25360,13 @@
         <v>103</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C1468" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D1468" s="1" t="s">
-        <v>1198</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1469" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -25275,13 +25374,13 @@
         <v>103</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C1469" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>1003</v>
+        <v>1123</v>
       </c>
       <c r="E1469" s="1"/>
     </row>
@@ -25290,46 +25389,43 @@
         <v>103</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1470" s="1"/>
-      <c r="D1470" s="1"/>
-      <c r="E1470" s="1" t="s">
-        <v>1226</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C1470" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1470" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1470" s="1"/>
     </row>
     <row r="1471" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1471" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C1471" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E1471" s="1" t="s">
-        <v>1226</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="E1471" s="1"/>
     </row>
     <row r="1472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1472" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1472" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1472" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E1472" s="1" t="s">
-        <v>1222</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1473" spans="1:5" x14ac:dyDescent="0.2">
@@ -25337,16 +25433,13 @@
         <v>103</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1473" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1473" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E1473" s="1" t="s">
-        <v>1222</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1474" spans="1:5" x14ac:dyDescent="0.2">
@@ -25354,16 +25447,13 @@
         <v>103</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1474" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1474" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E1474" s="1" t="s">
-        <v>1222</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1475" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -25371,84 +25461,73 @@
         <v>103</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1475" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E1475" s="1" t="s">
-        <v>1222</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="E1475" s="1"/>
     </row>
     <row r="1476" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1476" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1476" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1476" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E1476" s="1" t="s">
-        <v>1222</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="E1476" s="1"/>
     </row>
     <row r="1477" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1477" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1477" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1477" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E1477" s="1" t="s">
-        <v>1222</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="E1477" s="1"/>
     </row>
     <row r="1478" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1478" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1478" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1478" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E1478" s="1" t="s">
-        <v>1222</v>
-      </c>
+        <v>1132</v>
+      </c>
+      <c r="E1478" s="1"/>
     </row>
     <row r="1479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1479" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1479" s="1">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D1479" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E1479" s="1" t="s">
-        <v>1222</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1480" spans="1:5" x14ac:dyDescent="0.2">
@@ -25456,16 +25535,13 @@
         <v>103</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1480" s="1">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D1480" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E1480" s="1" t="s">
-        <v>1222</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1481" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -25473,264 +25549,274 @@
         <v>103</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C1481" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1481" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E1481" s="1" t="s">
-        <v>1222</v>
-      </c>
+        <v>1133</v>
+      </c>
+      <c r="E1481" s="1"/>
     </row>
     <row r="1482" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1482" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C1482" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D1482" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E1482" s="1" t="s">
-        <v>1222</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E1482" s="1"/>
     </row>
     <row r="1483" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1483" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C1483" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1483" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E1483" s="1" t="s">
-        <v>1225</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="E1483" s="1"/>
     </row>
     <row r="1484" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1484" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C1484" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1484" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E1484" s="1" t="s">
-        <v>1225</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="E1484" s="1"/>
     </row>
     <row r="1485" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1485" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C1485" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1485" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E1485" s="1" t="s">
-        <v>1225</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="E1485" s="1"/>
     </row>
     <row r="1486" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1486" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C1486" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D1486" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E1486" s="1" t="s">
-        <v>1225</v>
-      </c>
+        <v>1138</v>
+      </c>
+      <c r="E1486" s="1"/>
     </row>
     <row r="1487" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1487" s="1" t="s">
-        <v>1309</v>
+        <v>103</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1487" s="1"/>
-      <c r="D1487" s="1"/>
-      <c r="E1487" s="1" t="s">
-        <v>1300</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C1487" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1487" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E1487" s="1"/>
     </row>
     <row r="1488" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1488" s="1" t="s">
-        <v>1309</v>
+        <v>103</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C1488" s="1"/>
-      <c r="D1488" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C1488" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1488" s="1" t="s">
+        <v>1140</v>
+      </c>
       <c r="E1488" s="1"/>
     </row>
     <row r="1489" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1489" s="1" t="s">
-        <v>1309</v>
+        <v>103</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C1489" s="1"/>
-      <c r="D1489" s="1"/>
-      <c r="E1489" s="1" t="s">
-        <v>1303</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C1489" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1489" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E1489" s="1"/>
     </row>
     <row r="1490" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1490" s="1" t="s">
-        <v>1309</v>
+        <v>103</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1490" s="1"/>
-      <c r="D1490" s="1"/>
-      <c r="E1490" s="1" t="s">
-        <v>1302</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C1490" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1490" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1490" s="1"/>
     </row>
     <row r="1491" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1491" s="1" t="s">
-        <v>1309</v>
+        <v>103</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C1491" s="1">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="D1491" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E1491" s="1" t="s">
-        <v>1295</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="E1491" s="1"/>
     </row>
     <row r="1492" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1492" s="1" t="s">
-        <v>1309</v>
+        <v>103</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C1492" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C1492" s="1">
+        <v>0</v>
+      </c>
       <c r="D1492" s="1" t="s">
-        <v>1301</v>
+        <v>1046</v>
       </c>
       <c r="E1492" s="1"/>
     </row>
     <row r="1493" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1493" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1493" s="1"/>
-      <c r="D1493" s="1"/>
-      <c r="E1493" s="1" t="s">
-        <v>1300</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C1493" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1493" s="1"/>
     </row>
     <row r="1494" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1494" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C1494" s="1"/>
-      <c r="D1494" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C1494" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1494" s="1" t="s">
+        <v>1143</v>
+      </c>
       <c r="E1494" s="1"/>
     </row>
     <row r="1495" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1495" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C1495" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1495" s="1" t="s">
-        <v>1227</v>
+        <v>1144</v>
       </c>
       <c r="E1495" s="1"/>
     </row>
     <row r="1496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1496" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C1496" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1496" s="1" t="s">
-        <v>1228</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1497" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C1497" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1497" s="1" t="s">
-        <v>1229</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1498" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="C1498" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1498" s="1" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="1499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1499" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C1499" s="1">
         <v>-1</v>
@@ -25741,1074 +25827,1004 @@
     </row>
     <row r="1500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1500" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1500" s="3">
+        <v>113</v>
+      </c>
+      <c r="C1500" s="1">
         <v>0</v>
       </c>
       <c r="D1500" s="1" t="s">
-        <v>1230</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1501" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1501" s="1">
         <v>1</v>
       </c>
       <c r="D1501" s="1" t="s">
-        <v>1231</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1502" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1502" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1502" s="1">
         <v>2</v>
       </c>
       <c r="D1502" s="1" t="s">
-        <v>1232</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1503" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1503" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1503" s="1" t="s">
-        <v>1233</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1504" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1504" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1504" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1504" s="1" t="s">
-        <v>1234</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1505" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1505" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1505" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1505" s="1" t="s">
-        <v>1235</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1506" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1506" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1506" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1506" s="1" t="s">
-        <v>1236</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1507" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1507" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1507" s="1" t="s">
-        <v>1237</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1508" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1508" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1508" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1508" s="1" t="s">
-        <v>1238</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1509" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1509" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1509" s="1" t="s">
-        <v>1239</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1510" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1510" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1510" s="1" t="s">
-        <v>1240</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1511" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1511" s="1">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D1511" s="1" t="s">
-        <v>1003</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1512" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1512" s="3">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="C1512" s="1">
+        <v>99</v>
       </c>
       <c r="D1512" s="1" t="s">
-        <v>1230</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1513" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C1513" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1513" s="1" t="s">
-        <v>1241</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1514" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1514" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1514" s="1" t="s">
-        <v>1242</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1515" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1515" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1515" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1515" s="1" t="s">
-        <v>1243</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1516" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1516" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1516" s="1" t="s">
-        <v>1244</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1517" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1517" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1517" s="1" t="s">
-        <v>1245</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1518" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1518" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1518" s="1" t="s">
-        <v>1246</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1519" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1519" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1519" s="1" t="s">
-        <v>1247</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1520" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1520" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1520" s="1" t="s">
-        <v>1248</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1521" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1521" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1521" s="1" t="s">
-        <v>1240</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1522" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C1522" s="1">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D1522" s="1" t="s">
-        <v>1003</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1523" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C1523" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1523" s="1" t="s">
-        <v>1249</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1524" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C1524" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1524" s="1" t="s">
-        <v>1250</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1525" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C1525" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1525" s="1" t="s">
-        <v>1251</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1526" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C1526" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1526" s="1" t="s">
-        <v>1101</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1527" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C1527" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D1527" s="1" t="s">
-        <v>1003</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1528" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1528" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1528" s="1" t="s">
-        <v>1252</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1529" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1529" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1529" s="1" t="s">
-        <v>1253</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1530" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1530" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1530" s="1" t="s">
-        <v>1254</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1531" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1531" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1531" s="1" t="s">
-        <v>1255</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1532" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1532" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1532" s="1" t="s">
-        <v>1256</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1533" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1533" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1533" s="1" t="s">
-        <v>1101</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C1534" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D1534" s="1" t="s">
-        <v>1003</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1535" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C1535" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D1535" s="1" t="s">
-        <v>1257</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1536" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C1536" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1536" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1537" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1537" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1537" s="1">
+        <v>99</v>
+      </c>
+      <c r="D1537" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1538" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1538" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1538" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D1538" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1539" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1539" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1539" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1539" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1540" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1540" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1540" s="1">
         <v>1</v>
       </c>
-      <c r="D1536" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1537" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1537" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1537" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1537" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1538" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1538" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1538" s="1">
+      <c r="D1540" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1541" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1541" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1541" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1542" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1542" s="1">
         <v>3</v>
       </c>
-      <c r="D1538" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E1538" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1539" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1539" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1539" s="1">
+      <c r="D1542" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1543" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1543" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1543" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1543" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1544" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1544" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1544" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1544" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1545" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1545" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1545" s="1">
         <v>-1</v>
       </c>
-      <c r="D1539" s="1" t="s">
+      <c r="D1545" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1540" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1540" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1540" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1540" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1540" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1541" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1541" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1541" s="1">
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1546" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1546" s="1">
         <v>1</v>
       </c>
-      <c r="D1541" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1542" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1542" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1542" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1542" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1543" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1543" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1543" s="1">
+      <c r="D1546" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1547" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1547" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1547" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1548" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1548" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1548" s="1">
         <v>3</v>
       </c>
-      <c r="D1543" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E1543" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1544" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1544" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1544" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1544" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E1544" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1545" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1545" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1545" s="1">
-        <v>5</v>
-      </c>
-      <c r="D1545" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E1545" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1546" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1546" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1546" s="1">
-        <v>8</v>
-      </c>
-      <c r="D1546" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E1546" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1547" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1547" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1547" s="1">
-        <v>9</v>
-      </c>
-      <c r="D1547" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E1547" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1548" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1548" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1548" s="1">
-        <v>10</v>
-      </c>
       <c r="D1548" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E1548" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1549" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C1549" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="D1549" s="1" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1550" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1550" s="1">
-        <v>16</v>
-      </c>
-      <c r="D1550" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E1550" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1551" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C1551" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="D1551" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E1551" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1552" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1552" s="1">
-        <v>18</v>
-      </c>
-      <c r="D1552" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E1552" s="1" t="s">
-        <v>1288</v>
+        <v>1</v>
+      </c>
+      <c r="D1552" s="4" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="1553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1553" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1553" s="1">
-        <v>19</v>
-      </c>
-      <c r="D1553" s="1" t="s">
-        <v>1271</v>
+        <v>2</v>
+      </c>
+      <c r="D1553" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="1554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1554" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1554" s="1">
-        <v>20</v>
-      </c>
-      <c r="D1554" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E1554" s="1" t="s">
-        <v>1288</v>
+        <v>3</v>
+      </c>
+      <c r="D1554" s="4" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="1555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1555" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1555" s="1">
-        <v>21</v>
-      </c>
-      <c r="D1555" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1555" s="1" t="s">
-        <v>1288</v>
+        <v>4</v>
+      </c>
+      <c r="D1555" s="4" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="1556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1556" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1556" s="1">
-        <v>22</v>
-      </c>
-      <c r="D1556" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1556" s="1" t="s">
-        <v>1290</v>
+        <v>5</v>
+      </c>
+      <c r="D1556" s="4" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="1557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1557" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1557" s="1">
-        <v>23</v>
-      </c>
-      <c r="D1557" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E1557" s="1" t="s">
-        <v>1290</v>
+        <v>6</v>
+      </c>
+      <c r="D1557" s="4" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="1558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1558" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1558" s="1">
-        <v>90</v>
-      </c>
-      <c r="D1558" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E1558" s="1" t="s">
-        <v>1290</v>
+        <v>7</v>
+      </c>
+      <c r="D1558" s="4" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1559" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1559" s="1">
-        <v>97</v>
-      </c>
-      <c r="D1559" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1559" s="1" t="s">
-        <v>1290</v>
+        <v>8</v>
+      </c>
+      <c r="D1559" s="4" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="1560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1560" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1560" s="1">
-        <v>98</v>
-      </c>
-      <c r="D1560" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E1560" s="1" t="s">
-        <v>1290</v>
+        <v>9</v>
+      </c>
+      <c r="D1560" s="4" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="1561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1561" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1561" s="1">
-        <v>99</v>
-      </c>
-      <c r="D1561" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E1561" s="1" t="s">
-        <v>1290</v>
+        <v>10</v>
+      </c>
+      <c r="D1561" s="4" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="1562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1562" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1562" s="1">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D1562" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E1562" s="1" t="s">
-        <v>1291</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1563" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C1563" s="1">
-        <v>104</v>
+        <v>-1</v>
       </c>
       <c r="D1563" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1563" s="1" t="s">
-        <v>1291</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1564" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1564" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1564" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1564" s="1">
-        <v>105</v>
-      </c>
-      <c r="D1564" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E1564" s="1" t="s">
-        <v>1291</v>
+      <c r="A1564" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1564" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1564" s="7"/>
+      <c r="D1564" s="7"/>
+      <c r="E1564" s="7" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="1565" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1565" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1565" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1565" s="1">
-        <v>106</v>
-      </c>
-      <c r="D1565" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1565" s="1" t="s">
-        <v>1292</v>
+      <c r="A1565" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1565" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1565" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D1565" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1565" s="7" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="1566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1566" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C1566" s="1">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D1566" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="E1566" s="1" t="s">
-        <v>1292</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1567" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C1567" s="1">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D1567" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="E1567" s="1" t="s">
-        <v>1292</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1568" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C1568" s="1">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D1568" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="E1568" s="1" t="s">
-        <v>1291</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1569" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C1569" s="1">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D1569" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="E1569" s="1" t="s">
-        <v>1291</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1570" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1570" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1570" s="1" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="E1570" s="1" t="s">
         <v>1222</v>
@@ -26816,16 +26832,16 @@
     </row>
     <row r="1571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1571" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1571" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1571" s="1" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="E1571" s="1" t="s">
         <v>1222</v>
@@ -26833,16 +26849,16 @@
     </row>
     <row r="1572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1572" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1572" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1572" s="1" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="E1572" s="1" t="s">
         <v>1222</v>
@@ -26850,16 +26866,16 @@
     </row>
     <row r="1573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1573" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1573" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1573" s="1" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>1222</v>
@@ -26867,16 +26883,16 @@
     </row>
     <row r="1574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1574" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1574" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1574" s="1" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="E1574" s="1" t="s">
         <v>1222</v>
@@ -26884,16 +26900,16 @@
     </row>
     <row r="1575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1575" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1575" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1575" s="1" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="E1575" s="1" t="s">
         <v>1222</v>
@@ -26901,16 +26917,16 @@
     </row>
     <row r="1576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1576" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C1576" s="1">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D1576" s="1" t="s">
-        <v>1218</v>
+        <v>1003</v>
       </c>
       <c r="E1576" s="1" t="s">
         <v>1222</v>
@@ -26918,61 +26934,61 @@
     </row>
     <row r="1577" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1577" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C1577" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1577" s="1" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="E1577" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1578" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1578" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C1578" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1578" s="1" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="E1578" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1579" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1579" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C1579" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1579" s="1" t="s">
-        <v>1221</v>
+        <v>1061</v>
       </c>
       <c r="E1579" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1580" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1580" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C1580" s="1">
         <v>-1</v>
@@ -26981,7 +26997,7 @@
         <v>1003</v>
       </c>
       <c r="E1580" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
